--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/61_Nevşehir_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/61_Nevşehir_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33EDE6D1-3714-45A9-B5CD-1E395C00BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B2DB26-BFDD-41B5-B095-D4C2D28E54EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{92A91922-C080-4BC1-A330-FED65945E117}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{B2E73407-CF73-4BEE-BA4C-81B86A9E6F31}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -985,14 +985,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B305BA7E-B3DE-42E0-BD0A-CDC107928E5F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D6ADEDD5-2030-41B8-9846-02D6D8A51B60}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7270C9E0-3809-439E-A322-26D478E60132}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{29474ED8-797C-430A-ADE5-1EB189CB6B02}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2E683846-057D-4B0E-950A-8ED0EA9DC6E0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4E28C112-3853-4096-9E33-F2CCCFAA162B}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F966B011-E39A-406B-A88C-177D330356F7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E084D41C-C5BF-47C6-A21A-1139E2B7947F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{253A97FF-8CA2-490C-A696-7797AFC27095}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9FE1F157-423A-4DCC-864B-EE50ED327811}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E7557A8B-AB98-4064-ABAB-393DD91B92B4}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{AADD26DD-3344-45AF-B752-692DC3F394C3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D5B5BBBB-66EB-4E02-B5A2-9B9CF005ADB5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{28AE3C10-AEEA-42DD-AC33-C3E5770F2575}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{8D36FFE2-2D8C-48A2-A242-5D308C17834E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D207C30B-D4F1-4E55-A186-9A1EEBD1F07A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1362,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A476BD-A834-4AB5-AC56-8EEBC96F3B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B939D0F7-7EDE-4D08-8A70-734B7F29B070}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2617,18 +2617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5D80004-709D-46DE-9FEA-67C9C3AAC309}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FFB400E-29DB-4E80-B896-5AB93816A24C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6631A21D-AE3D-43BA-8942-6FC307901F3F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2FF6F166-6AE9-48A2-A190-8252311122B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A3B7F2F-B245-4862-A433-D7CF52940D3E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C5D52B6-ACB4-4752-A6A1-AC0C273C289E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2ED1FB7C-ABD8-41B5-9B6E-B563794CF126}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85D79B49-0FBB-4B94-8E1B-5E3A90CE36CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B88C22A-6BE6-4DCF-B02B-88562DA5A40B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{02872DE7-57FA-459C-8FAE-5EB8EB1F951D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F4E3617-6AAA-49E7-9527-8E3A7CF3F64B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33E1C0F2-2DD0-499D-B830-E3BABF2864E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{160AD1D5-D8AD-4F10-803E-A8B0FA95C6D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1820411-98FD-4285-8E95-7990CA1D6E87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E6FFB33-F778-4214-BC70-F6A2DAB29AAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C79DCACD-B5F4-42D2-994C-140C0C1132A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59322B4F-53A6-4838-AFAF-AF27E34711E3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8088D5C3-FA77-4932-93B9-664A5B18FA8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FF575EB-2B34-4DE2-BC30-5F2B5E259768}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6570B06-8724-457E-8684-A171BF2F2939}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F3B43EC-A3C9-4BA5-B1E4-35456A59866B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8176816F-D327-43A0-ADA5-6DBDCF3AEF50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A505DF91-3FA2-4FB9-8136-B98CAB482D69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FFFAB46-EA35-46B7-BAEF-B3A0539FFB4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2641,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC4BFC-8496-4305-BD8A-7C3DB3C87B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE137E9-EE08-4DE8-95A4-5D01079FC608}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3872,18 +3872,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DF79663-B488-4068-980B-978D9F457FB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B837E5B3-9E80-43FE-B207-11F9EDF94DA1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C089478A-DEB8-49FE-AB60-6039FDD601B1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{154AF0FD-694D-44AC-97AE-FF3EE25AD0D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6572E5F9-BE38-4C0C-90EC-A14872CA2696}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4EE15794-0755-4EAF-A62F-E361495F4223}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{544719D6-0381-44FC-86E9-7B1DBC35BAC9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70361ED0-0D70-4F8A-BEE6-713A1B6D0598}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{315F5EF0-209C-4309-B85E-4F74DC7B8C8D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{27CBDFA6-F46D-454F-AEB8-99647C857FBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{760B1C22-D05A-45A0-A132-13120A685B83}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F002A8EC-2F5A-4318-BAF5-9C30225C4914}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51ECC345-B55E-45C2-92B4-C41E8714E6CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9987FB3B-9F78-4BBE-998A-17C43624BFDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8DF4430-2F01-47A2-879E-1CC9541357BE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DBA3A92-5F6C-4990-AD4E-597E2F15B387}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B06CA914-5D5B-454F-8DF5-FB49F8E76540}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8B5DDDE3-2856-46B6-86A0-B737F3CA6AD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DAC8FC8-1E25-4009-A19F-B90469075D89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF3E6987-0D35-4756-BC25-CF6C67E41F20}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{531922CA-3D5A-4DD4-B03A-771C858FA942}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{581D123A-71F4-4FF2-9654-E228E27164E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F5600B8-411B-4F8F-AEB6-F6B40F3634DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A52BEB5-A4AC-42E9-993C-46FDF43900C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3896,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990D8C55-EA0D-462F-BA2A-63F7EE156C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C7C8D9-E8DE-4850-809D-80612E308DA5}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5123,18 +5123,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E7F52F5-CFAC-4940-B12F-5946198E22C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDAA50FA-E419-472A-98B8-E3B35C3ECAEF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6BE36E6-499E-4845-B00F-9CCEED6B0758}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{065F4E77-77B1-48E0-9A11-C830E4DBF535}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{442619C3-1047-4301-9BCC-1E3CE9BF9E33}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{854ECC46-E304-4001-933D-88217F5410E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA2F3CC2-F0FB-4184-8C2E-C4A37FB8838F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D36A04C2-56E7-4564-AA44-32D3A60DBD23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B738E9A-02D1-43FB-B342-D340C32C3E50}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{33CED0CE-CD5A-485F-8806-FD8C5DC653D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBB5F78B-EBD3-4C06-A271-D51A6355F334}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82EF5791-94E4-4CEE-8833-93229809EB88}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{723152D7-47A9-4E99-9C9D-E9C199EFA170}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD972A2E-3A82-4BF9-B643-A746C73C6794}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BC48679-FEC4-4290-A3A7-EA473BFE1B93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{193A2486-E525-4015-B6D3-E9FC36209E35}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E4FA1D3-892D-405F-9F28-49F7F989A4F4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0BAA09C1-C7D4-4635-A819-A4CDC4424DDF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D141C63-1779-4324-B6F1-9D01A80723B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C73AB8D0-E3DF-4288-822D-D81F52E55415}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BBA6D32-CEE7-47A7-8709-F6333475A87E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8A2922AD-D05D-47A3-85CD-883AB30B6BAE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B82863C8-537D-4C13-B0A9-4DA35BD00C1A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13BA64C6-3ABA-4FF1-9697-CA3F4A056A65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5147,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5112B92A-954A-4B0E-963B-028CCDD58FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6194CF5-1F35-4433-A4BC-45A58206C711}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6371,18 +6371,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CCEF8BD-5C85-49C9-BF1A-EF5B8AAFC299}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9935EBF3-A64F-4DA2-9670-05B432C28111}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F48D92BC-47D4-4B97-A7B1-7091026DB29D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08EA5EF0-D2D9-42BC-96D6-0AC7F9A7910C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{592860FF-F12B-42DF-AE6E-958C13AEDAD0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B6A0FE0A-1F46-4369-8ABD-E2A07911FE86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72D481AC-F6B4-4F45-9C23-2BC88754AD2C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFED0F52-9133-4192-9BF6-A2FF2A46B649}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82855A2C-8334-432F-A373-7D23CA17B2F1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BE73993E-0AE1-4F87-85CA-AA2049E54C3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA0070C9-AE65-4BD1-B36A-ABC1319F481A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24B52AF6-E5BF-444F-8F04-B1BDB71408EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9667AFA0-0521-48D4-8647-6040C9EBB970}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5B940DF-0318-4457-8E47-4F338AFC1605}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0678527B-6131-4160-A496-C1BC1E7FE385}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7729D9C3-A236-40EF-AB45-E7A07C2BF2EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98206F3C-040D-43B1-9530-E50AC7235A26}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B96AF8D4-7615-4374-A004-B4EEDC5D0634}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5712F15A-0527-4BAE-BCBE-21C828E0C62D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E377DCD2-FD9F-48B4-9EE0-927E4EE63E39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{371DDF04-C4AD-49D5-9F31-370CA2079E98}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C7C7CDA2-888D-4F26-9E95-F6BA65DA5A32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE9ED766-3A8C-4B85-94D6-69FF4C89EADF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2377D12-25D6-4B1A-B875-3A1F65BD8B66}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6395,7 +6395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D423B1CC-1367-4714-8348-0AD95AAF17DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D08FAF7-8485-44A6-A843-C19407C4B8C9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7648,18 +7648,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F9398DD-1DF4-4F6F-90C5-9F6E8C58D8CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17CC13AC-5B6C-4CEB-BDFF-F25E81AD6B8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5845DAB1-B99E-4855-AE03-D675CEBF8978}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0854DC28-D679-486D-877B-464A1EF782CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BCC5834-1D54-4E6B-B625-DACB9AF6E8DA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E3FA835-D591-4F03-B4F1-398F61590195}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1699FE3E-0ABE-45CB-9939-C7A3E81FEC27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{439F11CA-345D-473C-84F3-24C82DF88BDF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E81A5EF7-CD66-46A4-9029-D82358C21FA4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{513D1890-1D02-4052-8405-23C77A0EB114}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B34C777-4240-418C-B120-A428FD19BBC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{658F19C4-4173-4BB8-B8F6-C13D17AF369E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F97A2F4E-8A29-4D55-AFDF-04A70EA26E96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F5FB765-E014-4EC4-B538-69DA333074FC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A91DBEF-24FC-4774-8162-ECD9A5B9AF23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3ABFBF7A-D176-4D38-A252-AB81B00C2CFE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96177E27-E714-457D-A498-B91069C1A627}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E4DE29E-C544-4A2F-BEB4-5C193C967365}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8D20DAC-0909-444B-B878-66CC0221167F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{083CA017-DE15-4197-B637-FA1217BBFA2F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A22A181-B354-462E-B525-FF8E848C6FFF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F476E4F7-657C-44D3-BE0D-456A7901DE3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA483B0D-E0F0-400B-BC6F-8A8E79E254AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1775435-D072-4BE8-B1AC-E4E0EF091571}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7672,7 +7672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABC70E-EA2E-402B-890E-359CC7411984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE5C6D0-4C15-4E36-AEB3-68BF60D459F0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8925,18 +8925,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2FACA1F-7D2A-42CD-BE8E-864227020C5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF1AFD3B-C6E0-4998-9D89-327E43086086}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7CC15D88-8BE1-4725-AE53-4F85AA64B06D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57F5EEFD-C656-4194-985A-5EE42D3F1A16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26A8F669-3077-4787-AA4B-DF964ECBB879}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3DCC144F-89F0-409B-BE07-2657086E4AFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75985A95-A5C6-42FD-B8ED-E4766EFC89D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0F2914B-6E24-45D5-A8E9-BC287C198AA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56F1185A-F269-4841-9DBD-6D6224B3BC31}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6D0D1C29-7B36-418F-A890-E40BC00D3522}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05625928-7DB9-44C9-89DC-3E9B5C800015}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC17A0ED-6FDD-4ACC-8FB5-BE09D126EF43}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CBA0646E-19C9-4774-AE91-70C52DD3FFDC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D61DBF25-1713-400C-9F49-6982D344EBA3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76E511C3-89F3-4236-ADDB-82EB61B02FC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{876D1B7E-4247-4A57-AB0F-6BC42001CC96}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7E54007-F71E-4E0B-8909-A876368A959F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7E2B3544-A21A-4955-B722-4081C32766D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{049A5240-C22A-445C-BA74-A4DC1C2C052C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A431D0E3-0DFA-4532-A959-2F751702FBB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0119F6C9-15D9-439D-9703-D942CEFA2632}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4D32C43E-679F-47D2-808F-8E65FD435A25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39033CBE-C83C-4B8F-8412-ECEE6D5713E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0C2517F-12F1-406C-B13E-147542A5ACAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8949,7 +8949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF5980-B320-4E97-85FC-7D0A528A7475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BA7B8B-08C9-4688-8362-4C14B973C5D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10202,18 +10202,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA51C17E-33DD-4313-B89F-A45F6B15F670}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3AE32B0-CF44-4568-B830-E0D74175A9BA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59C1A776-FE4F-4A2F-BE77-29E5E04D4A59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A94C954E-5ABA-4249-B5FF-25208C3D75CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4972E1EB-4EF6-4CDE-B0AF-8515C5DA54DA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6CEB1FA6-B824-46D7-86C2-066ADE392938}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9258483-CBCC-4F28-B55A-3C24D7068A68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D2DC06C-1B20-4AB4-8F39-6E4FFED5D8F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FEA96C3-B926-4EB1-9576-C5EF75326E22}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6E4AB761-1DFE-4E37-A6EF-D206069CEB3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2FCED4B-6E15-4F44-8042-D822044E18FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3AE592B-8C04-4154-A668-70643649ECC0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9440256D-F720-475E-8E1B-CA119B2B56AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{667BC46B-538B-4890-8121-0A67342A57AE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18CD0021-089C-40DA-9E8F-0BA5E22AA3F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA7AE33B-059B-47AA-93B5-556EC0306D59}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79E427C9-D3EA-4E18-8804-4D4F982EA878}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BFE9839-8397-459C-AE23-4B6801F51C98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4D21475-6653-4276-8C6C-8B6FDCB4122F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDC29628-D20D-41B7-9478-38DA04FB8C03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50AF9AEE-EF81-4000-B4D3-DE03AEC57A53}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{826A0A81-1A33-4764-8B30-B84DF7C0C01C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95267B96-7C49-4BCB-8AF0-92C66CA61916}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C6C3532-4265-4599-9F50-C8F745DDF77D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10226,7 +10226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E302E10-67E0-4480-BA03-E72297B622C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B6DFD0-E88D-4DB8-B5F8-83F502426160}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11475,18 +11475,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07E8DD38-D8ED-4ABD-9A0A-7E13D1538415}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{052C75B3-1252-4E26-B8BC-3CA6B45D52DB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{022B0D27-6808-488C-B3AB-4552C4E2774F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96330571-6BE4-4E4F-9781-6A6DA70E746B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{326C15D3-09D3-4E6D-B0F8-05F73A657191}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62AE6E15-E162-4264-BAE6-2BB0AB88B817}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92D0D8E4-7EC7-44FC-A4A4-A611C88A4734}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEFB0BA6-D3DE-4F2A-B195-279AAFC13C64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AD7FDAF-85A5-4E7F-81A5-91FACAC120B8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0F444F56-88BF-470C-B8E3-E82041E9B715}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B55D593E-1D77-4620-A440-7E6ACEC952F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6BD692B5-F7CA-4FA6-8890-2760998917BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27D038CC-22E7-4694-B358-B5B99AA27E86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9FBEBA3E-C7CD-48F3-850B-FF19B296E6C7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B73F6D34-A8F0-4899-8469-0A229B55E553}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B01BF0B-688B-40FD-8398-8DAD9617740E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE4D6BA6-4595-4790-8FAD-F9D15EA34789}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A366ED8-A73B-49C0-87DB-702FA137CDA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D9E2B6E-EBEC-41B8-9507-667B1BA856F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{843B1EF8-567E-4E3C-B727-06B5F5DE6E8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2869ADD2-4D6F-464B-AF4E-61E5F12DA16D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2F3D7274-7BD8-41C2-BECC-02EF0C0F70C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A9CF8FA-F808-4EBE-8BDD-41677190994C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1065E05-986C-447E-A641-AEA35450BA0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11499,7 +11499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB52322A-4E39-4934-9B66-7F1DCBF9E010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1FC04B-FA76-4420-A859-AFE9F56BA54B}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12740,18 +12740,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{518DCDD7-2EB2-495C-979B-20D674A4D9D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0562369-2D00-4A11-9B4B-C2EF509F5C89}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F598DFC3-780B-4F57-AB4D-D7F64002DF9C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{953241AD-3F15-4596-9A92-E22D1670DF39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B92FB66-1C95-45DF-98BF-33A81D19C95B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BC07D217-4662-4EFC-A798-7F35B0601E58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79AF1B4C-CFC1-40A0-8812-48BCEE104298}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1453C1B4-FF80-45C5-9641-69CD04184557}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C86A15E5-9AC3-4401-AC87-0E71E90EB032}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{303922D9-7619-4B90-9BF1-EE2CBFDDC864}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93DD9231-A83F-4E4B-B813-DDDE69C48B4C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03F41311-DE80-4CA6-98BE-DF929F78323C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA2B590E-3692-45E2-BABF-A3F3A0773622}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{696FDFF6-9ACB-47FF-B19F-27D9DFA6B9F9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EDB001F-3DFE-447C-88D8-ECFB04528FBC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{436773D9-4988-4281-A58B-86633EF0A703}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AEED462-AEA4-4B3E-846D-C409A0E6A988}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1F509D7C-4DEE-43F2-A0AD-3DC820A81930}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4627225F-6788-4138-892B-D6A5E9449FDE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{394A16A0-9E94-460A-8AAC-7BD8855DFFAD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AEFC0D0-B7CA-43F3-9227-0D7DB737FC64}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2F83CE34-0533-4BF1-9B7A-5155855C1C90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D8A59BD-C84E-48B0-B97E-04D0AA3F12AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDCB4D23-B6E0-40C2-A418-3AF5FED15EBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12764,7 +12764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC18A26-47D1-44C7-A4C4-F5F8BECFC1CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62123BB3-3397-41EE-95BB-D49D9FFED578}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13995,18 +13995,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42F03F89-5E0C-4C61-8A4C-D43DF6CE5FBB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{512E96B3-9A3B-41AB-B99A-66249707FA49}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B9092F1-9201-4196-8FA7-3B9D30666753}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A08DB58A-2EB8-4CF2-935A-1B71D2435C29}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E28435D-A8E8-4082-BDBA-2D78F479B1C2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EA1BE7E5-EABF-4162-AAD6-1FCCBA47C830}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38295A53-C491-4AD6-B5EF-30E8ABA985FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{561A4ECD-7C1D-4383-BCE9-35EFD381A08A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76FF3FF3-F1DA-4EF9-9CC8-3CB14DD55F17}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4A40C6A0-9BA2-47E9-B742-014CF5384F59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0334354E-1F2D-476A-88EF-2A68D216ACD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36F3853F-FC9C-426F-9AC2-9889A7C9BB90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{858CB37F-BCCA-4DF0-B159-4EB35FA2DF4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B55439B-9707-4EFF-8D2F-2967FEFB7D22}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C5FB889-FE34-42E8-A22C-111943B3E509}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C085A5A0-6F89-4D37-A0EF-06782F4E7994}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB47D906-4264-4C07-A9FA-8334D5445478}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DA2687EA-CD15-41ED-99F7-5834DC46C99B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38D26319-9372-4612-A2D6-B82DE6D13FD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0A2401A-82BB-4D77-B4CE-9B6F3CC8C706}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5E0FF04-0F7A-43CF-9F1B-ECC4644F55EB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{86BAF421-3019-4787-B91E-B503ACA08869}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9AF0C87-FF76-4AD0-8A5A-A514FED7F13F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57B6F814-B340-4119-A3CF-BFEBF38838C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14019,7 +14019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932D22A1-5B56-4F14-A437-49F32BE9FA23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3CEE2D-87A5-4E2D-9EBF-8FA61053158C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15250,18 +15250,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81B5EEE6-3D77-4C56-B655-5D3518E8F2ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09A6CD25-35AD-4B47-B2C9-E15E05CF68BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC185332-D1EF-4C99-876F-06E1AFD2EE27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB3BCDF5-81E2-48EA-9AA6-9D29B200F1F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD6E9457-D1AC-4582-8375-AF55DCDDDA00}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5610F739-BC12-4389-B2F0-3D7184EFDD90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6E99B25-03CA-42BE-A2AB-A1CC979E9B43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A14F27C7-0DA6-437A-B320-4B0776D84ABF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{926E0CF8-CCC7-472F-9AB7-467A059458A0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DA84614C-CF59-43BD-974F-6E2BFEA3CFA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D348AF9-1047-4FF6-83DB-EA0003CBA248}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B641B5C-5D80-4698-8452-0B598F8EDE72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C732899F-48AE-4A74-94CB-67E240F4CBFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{453F8203-0159-4584-9FEF-B49A225F6FFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A619124-172A-4055-9266-5D15C447FB1A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F70ABDD-3033-449B-996A-57E9420E35A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A9806F2-CD38-49B7-8F87-FA94ACA72B23}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A26F525E-8B98-4926-8BAE-3B3ED19A2916}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D8C5A9A-17B4-429F-AB3C-B599C98F3A6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{681CBA6D-3F6D-4AB5-AF96-A629CCFFD18B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95D1B01E-476A-47EA-AB96-EA2ED3804F82}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{53C346F1-7E87-4EA2-840C-ECD0B119F662}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{245AE003-C524-4B33-B045-FDAA5A5EF09B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2363ED87-FE06-420C-8AF7-C5229BC72C75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15274,7 +15274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7C9E7E-5746-41E9-A002-B67A61D04084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D436F480-BFFE-4E57-B03D-368EB8C9963F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16505,18 +16505,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80C5FC55-86C2-45EF-A1DD-7940C57C2B52}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3C7F552-C430-45DC-B4AB-7D90FF5D5264}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A1231EF-9471-40CC-8DE2-E27D8FDC8561}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D4F98F5-1C54-49F7-8763-9807BE2DA663}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE023B15-A9DF-499C-A921-54B404261CAA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{25EF7E2C-0ADF-4F3C-81C3-93C12C2FC9C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{840F6FFC-06FC-49EF-A8C7-936361029882}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{955623D1-799D-4F68-B9BC-11A3544768C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DA92F79-0451-4AF9-96C2-AC50EA6DA852}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{516A1BBD-1712-41ED-A045-3D8586CD50A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{427FE6E1-739D-4FA4-9E5C-C5DCFBAEC026}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A8FCE35-F3D2-410F-8681-88E1B500BEB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4EE26F5-C9D8-41F5-8557-1D0A52C03992}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50A55A68-1BE7-4BF2-98C3-5D4FBF8D7189}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{874E8512-20D3-4276-ACF4-02EA55E560B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8AAE0735-2966-45C0-B458-0FBCA9B49C33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{307BA7E7-0419-496B-B063-D7EFB7CFEA0A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{741BB1B5-2A15-48BE-B879-B1B0F57D25A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2A30405-7555-4A7F-BB61-ECBD58249ED8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AD9E570-66F0-48E0-96ED-20AEF244A4E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE52EDD8-E236-4ACE-8862-2F2A96706ECD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D93EAA69-5EE1-418F-ACEF-305E78E11D4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8DB47D7-994D-4829-8C21-F97E72F4767D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3505409C-FB36-402D-9745-128FA1F55562}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
